--- a/excelimport/test.xlsx
+++ b/excelimport/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixreichenbach/MDB/GitHub/jupyter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixreichenbach/MDB/GitHub/jupyter/excelimport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2C5D1-D90D-6A45-9A08-3180824B1C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBE8962-F0B4-3447-B70A-28A504275E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{7FF03AD8-C9E3-924D-950B-D1B0538B4EB9}"/>
   </bookViews>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704DF6C-9407-EF49-88E7-6813D40822A6}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,14 +490,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
